--- a/数独表格.xlsx
+++ b/数独表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guohongbin\PycharmProjects\shudu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jarrod\PycharmPorjects\shudu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EF452D-433E-4E47-8084-103263B5EF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029B7730-65A8-4ADA-892B-3788003125C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{4D3F3E8B-37F2-4222-8A89-9E28D315BC99}"/>
+    <workbookView xWindow="25245" yWindow="1230" windowWidth="23850" windowHeight="20430" xr2:uid="{4D3F3E8B-37F2-4222-8A89-9E28D315BC99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -511,15 +511,15 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="6.7109375" customWidth="1"/>
+    <col min="1" max="9" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>6</v>
       </c>
@@ -536,7 +536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -551,7 +551,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9">
@@ -568,7 +568,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -585,7 +585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -604,7 +604,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
         <v>7</v>
@@ -621,7 +621,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
@@ -636,7 +636,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -651,7 +651,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8">
         <v>3</v>
@@ -666,7 +666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <f>SUM(A4:C6)</f>
         <v>30</v>
@@ -680,7 +680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <f>SUM(A7:C9)</f>
         <v>11</v>

--- a/数独表格.xlsx
+++ b/数独表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jarrod\PycharmPorjects\shudu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029B7730-65A8-4ADA-892B-3788003125C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F904FAB0-4498-4CCD-BB9A-8EEC5B51FDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25245" yWindow="1230" windowWidth="23850" windowHeight="20430" xr2:uid="{4D3F3E8B-37F2-4222-8A89-9E28D315BC99}"/>
+    <workbookView xWindow="14430" yWindow="570" windowWidth="23850" windowHeight="20430" xr2:uid="{4D3F3E8B-37F2-4222-8A89-9E28D315BC99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -511,7 +511,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -520,178 +520,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3">
+        <v>8</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="5">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
         <v>5</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5">
-        <v>2</v>
-      </c>
+      <c r="H2" s="5"/>
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="7">
+        <v>5</v>
+      </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
+      <c r="C3" s="9"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="9">
-        <v>4</v>
-      </c>
-      <c r="G3" s="8">
-        <v>5</v>
-      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
+      <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5">
+        <v>4</v>
+      </c>
       <c r="I4" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6">
-        <v>6</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5">
-        <v>3</v>
-      </c>
-      <c r="I5" s="6"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="8">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9">
         <v>7</v>
       </c>
-      <c r="C6" s="9">
-        <v>9</v>
-      </c>
-      <c r="D6" s="8">
-        <v>6</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5">
+        <v>7</v>
+      </c>
       <c r="C7" s="6"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5">
-        <v>7</v>
-      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5">
+        <v>9</v>
+      </c>
       <c r="H7" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>8</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5">
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8">
-        <v>3</v>
-      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="9">
-        <v>9</v>
-      </c>
+      <c r="I9" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <f>SUM(A4:C6)</f>
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D18">
         <f>SUM(D4:F6)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18">
         <f>SUM(G4:I6)</f>
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <f>SUM(A7:C9)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <f>SUM(D7:F9)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G21">
         <f>SUM(G7:I9)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数独表格.xlsx
+++ b/数独表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jarrod\PycharmPorjects\shudu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F904FAB0-4498-4CCD-BB9A-8EEC5B51FDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EE5591-449C-43B7-9692-6D3649AA4E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14430" yWindow="570" windowWidth="23850" windowHeight="20430" xr2:uid="{4D3F3E8B-37F2-4222-8A89-9E28D315BC99}"/>
+    <workbookView xWindow="765" yWindow="570" windowWidth="23850" windowHeight="20430" xr2:uid="{4D3F3E8B-37F2-4222-8A89-9E28D315BC99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DDED10-5232-4A07-AFF2-F0E5CBFBD0FB}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -521,16 +521,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="2">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3">
         <v>2</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2">
+        <v>5</v>
+      </c>
       <c r="F1" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -539,72 +539,66 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>7</v>
-      </c>
+      <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5">
-        <v>5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="8"/>
+      <c r="G3" s="8">
+        <v>2</v>
+      </c>
       <c r="H3" s="8"/>
-      <c r="I3" s="9">
-        <v>2</v>
-      </c>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5">
+        <v>6</v>
+      </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="6">
-        <v>2</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6">
         <v>3</v>
       </c>
-      <c r="H4" s="5">
-        <v>4</v>
-      </c>
-      <c r="I4" s="6">
-        <v>5</v>
-      </c>
     </row>
     <row r="5" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5">
-        <v>9</v>
-      </c>
+      <c r="A5" s="4">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6">
-        <v>6</v>
-      </c>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -612,11 +606,11 @@
       <c r="C6" s="9">
         <v>5</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8">
+        <v>8</v>
+      </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="9">
-        <v>7</v>
-      </c>
+      <c r="F6" s="9"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
@@ -624,17 +618,15 @@
     <row r="7" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="5">
-        <v>9</v>
-      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I7" s="6"/>
     </row>
@@ -652,44 +644,22 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
+      <c r="E9" s="8">
+        <v>9</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <f>SUM(A4:C6)</f>
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <f>SUM(D4:F6)</f>
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <f>SUM(G4:I6)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <f>SUM(A7:C9)</f>
-        <v>13</v>
-      </c>
-      <c r="D21">
-        <f>SUM(D7:F9)</f>
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <f>SUM(G7:I9)</f>
-        <v>10</v>
+      <c r="I9" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数独表格.xlsx
+++ b/数独表格.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jarrod\PycharmPorjects\shudu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jarrod\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EE5591-449C-43B7-9692-6D3649AA4E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A168A8BD-EFC9-4539-A0BC-7AEE48284FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="570" windowWidth="23850" windowHeight="20430" xr2:uid="{4D3F3E8B-37F2-4222-8A89-9E28D315BC99}"/>
+    <workbookView xWindow="16410" yWindow="3465" windowWidth="23850" windowHeight="20430" xr2:uid="{4D3F3E8B-37F2-4222-8A89-9E28D315BC99}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +51,14 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -69,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -78,6 +87,166 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -163,13 +332,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -179,9 +351,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -192,6 +361,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,11 +715,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DDED10-5232-4A07-AFF2-F0E5CBFBD0FB}">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC6ED6B-8620-4E2E-87F3-BC4F70FC149E}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="33.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.625" style="2" customWidth="1"/>
+    <col min="2" max="9" width="8.625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="8.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7">
+        <v>4</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="9">
+        <v>9</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7">
+        <v>1</v>
+      </c>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="13">
+        <v>3</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="10">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12">
+        <v>7</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10">
+        <v>5</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8">
+        <v>3</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12">
+        <v>8</v>
+      </c>
+      <c r="D8" s="10">
+        <v>5</v>
+      </c>
+      <c r="E8" s="13">
+        <v>7</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="3">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DDED10-5232-4A07-AFF2-F0E5CBFBD0FB}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -519,147 +903,381 @@
     <col min="1" max="9" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3">
+    <row r="1" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14">
+        <v>6</v>
+      </c>
+      <c r="B1" s="15">
+        <v>5</v>
+      </c>
+      <c r="C1" s="16">
+        <v>8</v>
+      </c>
+      <c r="D1" s="15">
+        <v>1</v>
+      </c>
+      <c r="E1" s="15">
+        <v>3</v>
+      </c>
+      <c r="F1" s="16">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2">
+      <c r="G1" s="15">
+        <v>4</v>
+      </c>
+      <c r="H1" s="15">
+        <v>9</v>
+      </c>
+      <c r="I1" s="16">
+        <v>7</v>
+      </c>
+      <c r="K1">
+        <f>SUM(A1:I1)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>7</v>
+      </c>
+      <c r="B2" s="18">
+        <v>4</v>
+      </c>
+      <c r="C2" s="19">
+        <v>3</v>
+      </c>
+      <c r="D2" s="18">
         <v>5</v>
       </c>
-      <c r="F1" s="3">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3">
+      <c r="E2" s="18">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6">
+      <c r="F2" s="19">
         <v>8</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="G2" s="18">
+        <v>1</v>
+      </c>
+      <c r="H2" s="18">
+        <v>2</v>
+      </c>
+      <c r="I2" s="19">
         <v>6</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8">
+      <c r="K2">
+        <f t="shared" ref="K2:K9" si="0">SUM(A2:I2)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5">
+      <c r="B3" s="21">
+        <v>9</v>
+      </c>
+      <c r="C3" s="22">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21">
+        <v>7</v>
+      </c>
+      <c r="E3" s="21">
         <v>6</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6">
+      <c r="F3" s="22">
+        <v>4</v>
+      </c>
+      <c r="G3" s="21">
+        <v>5</v>
+      </c>
+      <c r="H3" s="21">
+        <v>8</v>
+      </c>
+      <c r="I3" s="22">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19">
+        <v>4</v>
+      </c>
+      <c r="D4" s="18">
+        <v>9</v>
+      </c>
+      <c r="E4" s="18">
+        <v>1</v>
+      </c>
+      <c r="F4" s="19">
+        <v>5</v>
+      </c>
+      <c r="G4" s="18">
+        <v>6</v>
+      </c>
+      <c r="H4" s="18">
         <v>7</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5">
+      <c r="I4" s="19">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
+        <v>5</v>
+      </c>
+      <c r="B5" s="18">
+        <v>8</v>
+      </c>
+      <c r="C5" s="19">
+        <v>6</v>
+      </c>
+      <c r="D5" s="18">
+        <v>4</v>
+      </c>
+      <c r="E5" s="18">
+        <v>2</v>
+      </c>
+      <c r="F5" s="19">
+        <v>7</v>
+      </c>
+      <c r="G5" s="18">
+        <v>9</v>
+      </c>
+      <c r="H5" s="18">
         <v>3</v>
       </c>
-      <c r="F5" s="6">
+      <c r="I5" s="19">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>1</v>
+      </c>
+      <c r="B6" s="21">
+        <v>7</v>
+      </c>
+      <c r="C6" s="22">
+        <v>9</v>
+      </c>
+      <c r="D6" s="21">
+        <v>6</v>
+      </c>
+      <c r="E6" s="21">
+        <v>8</v>
+      </c>
+      <c r="F6" s="22">
+        <v>3</v>
+      </c>
+      <c r="G6" s="21">
+        <v>2</v>
+      </c>
+      <c r="H6" s="21">
+        <v>4</v>
+      </c>
+      <c r="I6" s="22">
         <v>5</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9">
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
+        <v>9</v>
+      </c>
+      <c r="B7" s="18">
+        <v>6</v>
+      </c>
+      <c r="C7" s="19">
+        <v>2</v>
+      </c>
+      <c r="D7" s="18">
+        <v>8</v>
+      </c>
+      <c r="E7" s="18">
+        <v>7</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+      <c r="G7" s="18">
+        <v>3</v>
+      </c>
+      <c r="H7" s="18">
         <v>5</v>
       </c>
-      <c r="D6" s="8">
+      <c r="I7" s="19">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17">
         <v>8</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5">
+      <c r="B8" s="18">
+        <v>1</v>
+      </c>
+      <c r="C8" s="19">
+        <v>5</v>
+      </c>
+      <c r="D8" s="18">
+        <v>3</v>
+      </c>
+      <c r="E8" s="18">
+        <v>4</v>
+      </c>
+      <c r="F8" s="19">
+        <v>9</v>
+      </c>
+      <c r="G8" s="18">
         <v>7</v>
       </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5">
+      <c r="H8" s="18">
+        <v>6</v>
+      </c>
+      <c r="I8" s="19">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <v>4</v>
+      </c>
+      <c r="B9" s="21">
         <v>3</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9">
+      <c r="C9" s="22">
+        <v>7</v>
+      </c>
+      <c r="D9" s="21">
+        <v>2</v>
+      </c>
+      <c r="E9" s="21">
+        <v>5</v>
+      </c>
+      <c r="F9" s="22">
         <v>6</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8">
+      <c r="G9" s="21">
+        <v>8</v>
+      </c>
+      <c r="H9" s="21">
+        <v>1</v>
+      </c>
+      <c r="I9" s="22">
         <v>9</v>
       </c>
-      <c r="F9" s="9">
-        <v>2</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9">
-        <v>1</v>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f>SUM(A1:A9)</f>
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:I11" si="1">SUM(B1:B9)</f>
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f>SUM(A1:C3)</f>
+        <v>45</v>
+      </c>
+      <c r="D15">
+        <f>SUM(D1:F3)</f>
+        <v>45</v>
+      </c>
+      <c r="G15">
+        <f>SUM(G1:I3)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f>SUM(A4:C6)</f>
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <f>SUM(D4:F6)</f>
+        <v>45</v>
+      </c>
+      <c r="G18">
+        <f>SUM(G4:I6)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f>SUM(A7:C9)</f>
+        <v>45</v>
+      </c>
+      <c r="D21">
+        <f>SUM(D7:F9)</f>
+        <v>45</v>
+      </c>
+      <c r="G21">
+        <f>SUM(G7:I9)</f>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/数独表格.xlsx
+++ b/数独表格.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jarrod\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guohongbin\PycharmProjects\shudu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A168A8BD-EFC9-4539-A0BC-7AEE48284FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90708FDD-9E5C-45E9-8E3C-0327993A3C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16410" yWindow="3465" windowWidth="23850" windowHeight="20430" xr2:uid="{4D3F3E8B-37F2-4222-8A89-9E28D315BC99}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{4D3F3E8B-37F2-4222-8A89-9E28D315BC99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -718,163 +718,155 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC6ED6B-8620-4E2E-87F3-BC4F70FC149E}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="33.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="33.9" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="2" customWidth="1"/>
-    <col min="2" max="9" width="8.625" style="2" customWidth="1"/>
-    <col min="10" max="11" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="9.640625" style="2" customWidth="1"/>
+    <col min="2" max="9" width="8.640625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="8.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="50.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6">
-        <v>6</v>
-      </c>
-      <c r="B1" s="7">
-        <v>4</v>
-      </c>
-      <c r="C1" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8">
+        <v>2</v>
+      </c>
       <c r="D1" s="6"/>
       <c r="E1" s="9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="7">
-        <v>1</v>
-      </c>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="7"/>
+      <c r="I1" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="13">
-        <v>3</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="10">
-        <v>4</v>
-      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="12">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="50.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="4">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8</v>
+      </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="5">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
       <c r="I3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="50.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6"/>
       <c r="E4" s="9"/>
       <c r="F4" s="8"/>
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="12">
-        <v>7</v>
-      </c>
+      <c r="C5" s="12"/>
       <c r="D5" s="10"/>
       <c r="E5" s="13"/>
       <c r="F5" s="12"/>
       <c r="G5" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="50.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="1"/>
       <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H6" s="4"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+    <row r="7" spans="1:9" ht="50.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7">
         <v>7</v>
       </c>
-      <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="8">
-        <v>3</v>
-      </c>
-      <c r="G7" s="6">
-        <v>2</v>
-      </c>
+      <c r="E7" s="9">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+    <row r="8" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>2</v>
+      </c>
       <c r="B8" s="11"/>
       <c r="C8" s="12">
-        <v>8</v>
-      </c>
-      <c r="D8" s="10">
-        <v>5</v>
-      </c>
-      <c r="E8" s="13">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" ht="50.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="3">
-        <v>9</v>
-      </c>
-      <c r="E9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5">
+        <v>5</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="3"/>
       <c r="H9" s="4">
@@ -882,7 +874,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:9" ht="50.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -898,12 +890,12 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="9" width="6.75" customWidth="1"/>
+    <col min="1" max="9" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14">
         <v>6</v>
       </c>
@@ -936,7 +928,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
         <v>7</v>
       </c>
@@ -969,7 +961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -1002,7 +994,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -1035,7 +1027,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17">
         <v>5</v>
       </c>
@@ -1068,7 +1060,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="20">
         <v>1</v>
       </c>
@@ -1101,7 +1093,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <v>9</v>
       </c>
@@ -1134,7 +1126,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17">
         <v>8</v>
       </c>
@@ -1167,7 +1159,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="20">
         <v>4</v>
       </c>
@@ -1200,7 +1192,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>SUM(A1:A9)</f>
         <v>45</v>
@@ -1238,7 +1230,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <f>SUM(A1:C3)</f>
         <v>45</v>
@@ -1252,7 +1244,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <f>SUM(A4:C6)</f>
         <v>45</v>
@@ -1266,7 +1258,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <f>SUM(A7:C9)</f>
         <v>45</v>
